--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H2">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I2">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J2">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N2">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O2">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P2">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q2">
-        <v>189.4098729992902</v>
+        <v>14.77233312499</v>
       </c>
       <c r="R2">
-        <v>189.4098729992902</v>
+        <v>132.95099812491</v>
       </c>
       <c r="S2">
-        <v>0.02255232850788786</v>
+        <v>0.001364219153319463</v>
       </c>
       <c r="T2">
-        <v>0.02255232850788786</v>
+        <v>0.001541289146371392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H3">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I3">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J3">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N3">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P3">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q3">
-        <v>843.8862232325106</v>
+        <v>56.79377005629667</v>
       </c>
       <c r="R3">
-        <v>843.8862232325106</v>
+        <v>511.1439305066701</v>
       </c>
       <c r="S3">
-        <v>0.1004783912699825</v>
+        <v>0.00524488232457686</v>
       </c>
       <c r="T3">
-        <v>0.1004783912699825</v>
+        <v>0.00592564631657275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H4">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I4">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J4">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N4">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O4">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P4">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q4">
-        <v>1445.352160747862</v>
+        <v>95.98316201144334</v>
       </c>
       <c r="R4">
-        <v>1445.352160747862</v>
+        <v>863.84845810299</v>
       </c>
       <c r="S4">
-        <v>0.1720927015187508</v>
+        <v>0.00886400725628537</v>
       </c>
       <c r="T4">
-        <v>0.1720927015187508</v>
+        <v>0.01001451866749347</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H5">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I5">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J5">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N5">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O5">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P5">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q5">
-        <v>3153.745742532655</v>
+        <v>221.59790631471</v>
       </c>
       <c r="R5">
-        <v>3153.745742532655</v>
+        <v>1994.38115683239</v>
       </c>
       <c r="S5">
-        <v>0.3755047658799481</v>
+        <v>0.02046447948148502</v>
       </c>
       <c r="T5">
-        <v>0.3755047658799481</v>
+        <v>0.02312068411750755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H6">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I6">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J6">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N6">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O6">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P6">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q6">
-        <v>515.2910059690911</v>
+        <v>47.73339863078</v>
       </c>
       <c r="R6">
-        <v>515.2910059690911</v>
+        <v>286.40039178468</v>
       </c>
       <c r="S6">
-        <v>0.06135378193204583</v>
+        <v>0.00440816058737419</v>
       </c>
       <c r="T6">
-        <v>0.06135378193204583</v>
+        <v>0.003320214376724827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H7">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I7">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J7">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N7">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O7">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P7">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q7">
-        <v>69.35315804906701</v>
+        <v>250.1859706431867</v>
       </c>
       <c r="R7">
-        <v>69.35315804906701</v>
+        <v>2251.67373578868</v>
       </c>
       <c r="S7">
-        <v>0.00825762236474277</v>
+        <v>0.02310457597695741</v>
       </c>
       <c r="T7">
-        <v>0.00825762236474277</v>
+        <v>0.02610345419806503</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H8">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I8">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J8">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N8">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P8">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q8">
-        <v>308.9922066284997</v>
+        <v>961.8659671290178</v>
       </c>
       <c r="R8">
-        <v>308.9922066284997</v>
+        <v>8656.79370416116</v>
       </c>
       <c r="S8">
-        <v>0.03679055183300399</v>
+        <v>0.08882794370942967</v>
       </c>
       <c r="T8">
-        <v>0.03679055183300399</v>
+        <v>0.1003574427178361</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H9">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I9">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J9">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N9">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O9">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P9">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q9">
-        <v>529.2212874314248</v>
+        <v>1625.582116924502</v>
       </c>
       <c r="R9">
-        <v>529.2212874314248</v>
+        <v>14630.23905232052</v>
       </c>
       <c r="S9">
-        <v>0.06301240869088996</v>
+        <v>0.1501218690668747</v>
       </c>
       <c r="T9">
-        <v>0.06301240869088996</v>
+        <v>0.169607065597017</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H10">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I10">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J10">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N10">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O10">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P10">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q10">
-        <v>1154.756209193272</v>
+        <v>3753.00819543908</v>
       </c>
       <c r="R10">
-        <v>1154.756209193272</v>
+        <v>33777.07375895172</v>
       </c>
       <c r="S10">
-        <v>0.1374925232981258</v>
+        <v>0.3465888305836843</v>
       </c>
       <c r="T10">
-        <v>0.1374925232981258</v>
+        <v>0.3915746245992576</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H11">
+        <v>35.59684</v>
+      </c>
+      <c r="I11">
+        <v>0.6833003453286129</v>
+      </c>
+      <c r="J11">
+        <v>0.7438741281663874</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>68.131198</v>
+      </c>
+      <c r="N11">
+        <v>136.262396</v>
+      </c>
+      <c r="O11">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="P11">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="Q11">
+        <v>808.4184514047734</v>
+      </c>
+      <c r="R11">
+        <v>4850.51070842864</v>
+      </c>
+      <c r="S11">
+        <v>0.0746571259916668</v>
+      </c>
+      <c r="T11">
+        <v>0.05623154105421151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.371554</v>
+      </c>
+      <c r="I12">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J12">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>21.084959</v>
+      </c>
+      <c r="N12">
+        <v>63.25487699999999</v>
+      </c>
+      <c r="O12">
+        <v>0.03381320693734752</v>
+      </c>
+      <c r="P12">
+        <v>0.03509122472428063</v>
+      </c>
+      <c r="Q12">
+        <v>9.639719952095332</v>
+      </c>
+      <c r="R12">
+        <v>86.75747956885799</v>
+      </c>
+      <c r="S12">
+        <v>0.0008902243457424826</v>
+      </c>
+      <c r="T12">
+        <v>0.001005771776909773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.371554</v>
+      </c>
+      <c r="I13">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J13">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>81.06331633333333</v>
+      </c>
+      <c r="N13">
+        <v>243.189949</v>
+      </c>
+      <c r="O13">
+        <v>0.12999838843446</v>
+      </c>
+      <c r="P13">
+        <v>0.1349118606466557</v>
+      </c>
+      <c r="Q13">
+        <v>37.06090525674955</v>
+      </c>
+      <c r="R13">
+        <v>333.548147310746</v>
+      </c>
+      <c r="S13">
+        <v>0.003422560022362746</v>
+      </c>
+      <c r="T13">
+        <v>0.003866794130867207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.371554</v>
+      </c>
+      <c r="I14">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J14">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>136.9994176666667</v>
+      </c>
+      <c r="N14">
+        <v>410.998253</v>
+      </c>
+      <c r="O14">
+        <v>0.2197011461990087</v>
+      </c>
+      <c r="P14">
+        <v>0.2280050605000741</v>
+      </c>
+      <c r="Q14">
+        <v>62.63403309946244</v>
+      </c>
+      <c r="R14">
+        <v>563.7062978951619</v>
+      </c>
+      <c r="S14">
+        <v>0.005784228319315654</v>
+      </c>
+      <c r="T14">
+        <v>0.006534997186487651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.371554</v>
+      </c>
+      <c r="I15">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J15">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>316.292811</v>
+      </c>
+      <c r="N15">
+        <v>948.878433</v>
+      </c>
+      <c r="O15">
+        <v>0.5072276531881493</v>
+      </c>
+      <c r="P15">
+        <v>0.5263990368430604</v>
+      </c>
+      <c r="Q15">
+        <v>144.604223366098</v>
+      </c>
+      <c r="R15">
+        <v>1301.438010294882</v>
+      </c>
+      <c r="S15">
+        <v>0.01335414314704267</v>
+      </c>
+      <c r="T15">
+        <v>0.01508745559065384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.371554</v>
+      </c>
+      <c r="I16">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J16">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>68.131198</v>
+      </c>
+      <c r="N16">
+        <v>136.262396</v>
+      </c>
+      <c r="O16">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="P16">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="Q16">
+        <v>31.14853904723066</v>
+      </c>
+      <c r="R16">
+        <v>186.891234283384</v>
+      </c>
+      <c r="S16">
+        <v>0.002876555328573394</v>
+      </c>
+      <c r="T16">
+        <v>0.00216661352690486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.298806</v>
+      </c>
+      <c r="I17">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J17">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.084959</v>
+      </c>
+      <c r="N17">
+        <v>63.25487699999999</v>
+      </c>
+      <c r="O17">
+        <v>0.03381320693734752</v>
+      </c>
+      <c r="P17">
+        <v>0.03509122472428063</v>
+      </c>
+      <c r="Q17">
+        <v>2.100104086318</v>
+      </c>
+      <c r="R17">
+        <v>18.900936776862</v>
+      </c>
+      <c r="S17">
+        <v>0.0001939437862847021</v>
+      </c>
+      <c r="T17">
+        <v>0.0002191168860805347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4.02190891456284</v>
-      </c>
-      <c r="H11">
-        <v>4.02190891456284</v>
-      </c>
-      <c r="I11">
-        <v>0.268018030891385</v>
-      </c>
-      <c r="J11">
-        <v>0.268018030891385</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>46.9120012692379</v>
-      </c>
-      <c r="N11">
-        <v>46.9120012692379</v>
-      </c>
-      <c r="O11">
-        <v>0.08381870663666834</v>
-      </c>
-      <c r="P11">
-        <v>0.08381870663666834</v>
-      </c>
-      <c r="Q11">
-        <v>188.6757961047312</v>
-      </c>
-      <c r="R11">
-        <v>188.6757961047312</v>
-      </c>
-      <c r="S11">
-        <v>0.02246492470462251</v>
-      </c>
-      <c r="T11">
-        <v>0.02246492470462251</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.298806</v>
+      </c>
+      <c r="I18">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J18">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>81.06331633333333</v>
+      </c>
+      <c r="N18">
+        <v>243.189949</v>
+      </c>
+      <c r="O18">
+        <v>0.12999838843446</v>
+      </c>
+      <c r="P18">
+        <v>0.1349118606466557</v>
+      </c>
+      <c r="Q18">
+        <v>8.074068433432668</v>
+      </c>
+      <c r="R18">
+        <v>72.666615900894</v>
+      </c>
+      <c r="S18">
+        <v>0.000745637043851079</v>
+      </c>
+      <c r="T18">
+        <v>0.0008424176423734732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.298806</v>
+      </c>
+      <c r="I19">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J19">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>136.9994176666667</v>
+      </c>
+      <c r="N19">
+        <v>410.998253</v>
+      </c>
+      <c r="O19">
+        <v>0.2197011461990087</v>
+      </c>
+      <c r="P19">
+        <v>0.2280050605000741</v>
+      </c>
+      <c r="Q19">
+        <v>13.64541599843533</v>
+      </c>
+      <c r="R19">
+        <v>122.808743985918</v>
+      </c>
+      <c r="S19">
+        <v>0.001260148799960799</v>
+      </c>
+      <c r="T19">
+        <v>0.001423710892393321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.298806</v>
+      </c>
+      <c r="I20">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J20">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>316.292811</v>
+      </c>
+      <c r="N20">
+        <v>948.878433</v>
+      </c>
+      <c r="O20">
+        <v>0.5072276531881493</v>
+      </c>
+      <c r="P20">
+        <v>0.5263990368430604</v>
+      </c>
+      <c r="Q20">
+        <v>31.503396561222</v>
+      </c>
+      <c r="R20">
+        <v>283.530569050998</v>
+      </c>
+      <c r="S20">
+        <v>0.002909326280405463</v>
+      </c>
+      <c r="T20">
+        <v>0.003286944775940948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.298806</v>
+      </c>
+      <c r="I21">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J21">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>68.131198</v>
+      </c>
+      <c r="N21">
+        <v>136.262396</v>
+      </c>
+      <c r="O21">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="P21">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="Q21">
+        <v>6.786003583196001</v>
+      </c>
+      <c r="R21">
+        <v>40.716021499176</v>
+      </c>
+      <c r="S21">
+        <v>0.0006266847615986697</v>
+      </c>
+      <c r="T21">
+        <v>0.0004720172311993066</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.2421405</v>
+      </c>
+      <c r="H22">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J22">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>21.084959</v>
+      </c>
+      <c r="N22">
+        <v>63.25487699999999</v>
+      </c>
+      <c r="O22">
+        <v>0.03381320693734752</v>
+      </c>
+      <c r="P22">
+        <v>0.03509122472428063</v>
+      </c>
+      <c r="Q22">
+        <v>89.44535851473948</v>
+      </c>
+      <c r="R22">
+        <v>536.6721510884369</v>
+      </c>
+      <c r="S22">
+        <v>0.008260243675043466</v>
+      </c>
+      <c r="T22">
+        <v>0.006221592716853894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.2421405</v>
+      </c>
+      <c r="H23">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J23">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>81.06331633333333</v>
+      </c>
+      <c r="N23">
+        <v>243.189949</v>
+      </c>
+      <c r="O23">
+        <v>0.12999838843446</v>
+      </c>
+      <c r="P23">
+        <v>0.1349118606466557</v>
+      </c>
+      <c r="Q23">
+        <v>343.8819772819448</v>
+      </c>
+      <c r="R23">
+        <v>2063.291863691669</v>
+      </c>
+      <c r="S23">
+        <v>0.03175736533423965</v>
+      </c>
+      <c r="T23">
+        <v>0.02391955983900609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.2421405</v>
+      </c>
+      <c r="H24">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J24">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>136.9994176666667</v>
+      </c>
+      <c r="N24">
+        <v>410.998253</v>
+      </c>
+      <c r="O24">
+        <v>0.2197011461990087</v>
+      </c>
+      <c r="P24">
+        <v>0.2280050605000741</v>
+      </c>
+      <c r="Q24">
+        <v>581.1707781601821</v>
+      </c>
+      <c r="R24">
+        <v>3487.024668961093</v>
+      </c>
+      <c r="S24">
+        <v>0.05367089275657218</v>
+      </c>
+      <c r="T24">
+        <v>0.04042476815668259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.2421405</v>
+      </c>
+      <c r="H25">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J25">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>316.292811</v>
+      </c>
+      <c r="N25">
+        <v>948.878433</v>
+      </c>
+      <c r="O25">
+        <v>0.5072276531881493</v>
+      </c>
+      <c r="P25">
+        <v>0.5263990368430604</v>
+      </c>
+      <c r="Q25">
+        <v>1341.758543401945</v>
+      </c>
+      <c r="R25">
+        <v>8050.551260411672</v>
+      </c>
+      <c r="S25">
+        <v>0.1239108736955319</v>
+      </c>
+      <c r="T25">
+        <v>0.0933293277597004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.2421405</v>
+      </c>
+      <c r="H26">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J26">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>68.131198</v>
+      </c>
+      <c r="N26">
+        <v>136.262396</v>
+      </c>
+      <c r="O26">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="P26">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="Q26">
+        <v>289.0221143493189</v>
+      </c>
+      <c r="R26">
+        <v>1156.088457397276</v>
+      </c>
+      <c r="S26">
+        <v>0.02669107857182146</v>
+      </c>
+      <c r="T26">
+        <v>0.01340243109688856</v>
       </c>
     </row>
   </sheetData>
